--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416892.1363163482</v>
+        <v>436343.4828038228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914734</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136535</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4840571.114000474</v>
+        <v>5670696.135514803</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E3" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>38.87161743162454</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>38.87161743162454</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7904504476822691</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>38.87161743162455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>41.1479660174065</v>
       </c>
       <c r="I12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>74.21245223256828</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2123,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>67.8280421623458</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2214,13 +2214,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2327,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>11.86372679529251</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>12.94771755361639</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>50.46697834767995</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2934,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>47.20800045782193</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>18.23903973000353</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>29.79900896488263</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>29.81893858089545</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>126.9572906173535</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>59.05489248340077</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>38.87161743162454</v>
+        <v>2.312499047146208</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.790450447682255</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D3" t="n">
-        <v>131.9507376187037</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>87.37278572049297</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H4" t="n">
-        <v>93.48491238239833</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I4" t="n">
-        <v>48.90696048418764</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.37278572049297</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>131.9507376187037</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>131.9507376187037</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>87.37278572049297</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>42.79483382228227</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>48.90696048418764</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>87.37278572049297</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.2644294849704</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="E12" t="n">
-        <v>137.2644294849704</v>
+        <v>346.8642611912823</v>
       </c>
       <c r="F12" t="n">
-        <v>137.2644294849704</v>
+        <v>200.3297032181673</v>
       </c>
       <c r="G12" t="n">
-        <v>92.68647758675968</v>
+        <v>61.59887780078279</v>
       </c>
       <c r="H12" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>42.79483382228227</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>137.2644294849704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>92.68647758675968</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7281741425731</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>94.99734872518863</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>90.91227510121089</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>134.6031257566472</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5771,28 +5771,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>178.8480788072013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5862,19 +5862,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X21" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>499.3853800778592</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6072,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>777.5613083818946</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>777.5613083818946</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>777.5613083818946</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>777.5613083818946</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>83.81530782185143</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.81530782185143</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6649,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.4352409821462</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C33" t="n">
-        <v>176.4352409821462</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D33" t="n">
-        <v>176.4352409821462</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>176.4352409821462</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6786,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>176.4352409821462</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y33" t="n">
-        <v>176.4352409821462</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="34">
@@ -6895,13 +6895,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
         <v>20.03527576299844</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>50.15541574370091</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7260,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="C42" t="n">
-        <v>546.1553495854092</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="D42" t="n">
-        <v>546.1553495854092</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="E42" t="n">
-        <v>417.9156620931329</v>
+        <v>78.93254965910239</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>78.93254965910239</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>78.93254965910239</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>131.9507376187037</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>131.9507376187037</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X44" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.37278572049297</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>87.37278572049297</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C45" t="n">
-        <v>87.37278572049297</v>
+        <v>170.551410394844</v>
       </c>
       <c r="D45" t="n">
-        <v>87.37278572049297</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="E45" t="n">
-        <v>42.79483382228227</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>131.9507376187037</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>131.9507376187037</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>131.9507376187037</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>131.9507376187037</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>131.9507376187037</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X45" t="n">
-        <v>131.9507376187037</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y45" t="n">
-        <v>131.9507376187037</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>131.9507376187037</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>87.37278572049297</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>42.79483382228227</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.99639902664363</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,19 +9012,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E3" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>98.47189973158609</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23033,10 +23033,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>98.47189973158609</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.37159280401211</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,13 +23306,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23340,25 +23340,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>71.08747821908996</v>
       </c>
       <c r="I12" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,13 +23431,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,22 +23543,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,25 +23577,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,13 +23780,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>199.623498229859</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>38.02299200392818</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,10 +24063,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>44.40740207415067</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24102,13 +24102,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>147.7031912398178</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>403.4390107198425</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>120.841661643981</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>187.2170111412052</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>319.2641223307891</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>21.76500972135747</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,25 +24683,25 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>403.6107296845148</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.3909519116029</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24822,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>119.3251831920454</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>126.8301726633804</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,7 +25163,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>98.13396162234352</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,13 +25406,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>59.57769427051963</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25707,22 +25707,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>30.68778983804742</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>53.18055175309569</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25770,7 +25770,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.862224231856</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,16 +25907,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>106.1975949617593</v>
+        <v>142.7567133462377</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,7 +26004,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26071,16 +26071,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>251.3471928761458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352730.2806797033</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352730.2806797032</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352730.280679703</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="C2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="D2" t="n">
-        <v>89664.75401339904</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>89664.75401339906</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="F2" t="n">
-        <v>89664.75401339907</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="G2" t="n">
-        <v>89664.75401339901</v>
+        <v>124620.5043984993</v>
       </c>
       <c r="H2" t="n">
         <v>124620.5043984993</v>
@@ -26353,7 +26353,7 @@
         <v>124620.5043984993</v>
       </c>
       <c r="P2" t="n">
-        <v>89664.75401339907</v>
+        <v>124620.5043984993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>25706.08308719184</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>25706.08308719185</v>
+        <v>33649.8467842577</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12858.12884130588</v>
+        <v>-38080.04268106783</v>
       </c>
       <c r="C6" t="n">
-        <v>27647.8348455501</v>
+        <v>42689.38885047993</v>
       </c>
       <c r="D6" t="n">
-        <v>27647.8348455501</v>
+        <v>42689.3888504799</v>
       </c>
       <c r="E6" t="n">
-        <v>61275.43484555011</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="F6" t="n">
-        <v>61275.43484555012</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="G6" t="n">
-        <v>61275.43484555007</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="H6" t="n">
-        <v>20808.05632899115</v>
+        <v>76316.98885047993</v>
       </c>
       <c r="I6" t="n">
-        <v>73928.62329931615</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="J6" t="n">
-        <v>62381.70518932525</v>
+        <v>13257.0462513737</v>
       </c>
       <c r="K6" t="n">
-        <v>73928.62329931614</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="L6" t="n">
-        <v>73928.62329931612</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="M6" t="n">
-        <v>73928.62329931615</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="N6" t="n">
-        <v>73928.62329931614</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="O6" t="n">
-        <v>73928.62329931615</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="P6" t="n">
-        <v>61275.43484555012</v>
+        <v>76316.98885047992</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
